--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_10_9.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_10_9.xlsx
@@ -518,1101 +518,1101 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_9</t>
+          <t>model_10_9_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999773989552958</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9991511418325332</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999880372408821</v>
+        <v>0.9999748392634773</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9998359325859135</v>
+        <v>0.9999698392805606</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999130287502056</v>
+        <v>0.9999724124880138</v>
       </c>
       <c r="G2" t="n">
-        <v>2.109708316011267e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0007923718387631313</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I2" t="n">
-        <v>3.789118483629822e-06</v>
+        <v>2.55670867766081e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0001268197253311925</v>
+        <v>3.428362379971795e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>6.530442190741114e-05</v>
+        <v>2.992535528816303e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002341396090266106</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M2" t="n">
-        <v>0.004593156121896215</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N2" t="n">
-        <v>1.00010848501458</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O2" t="n">
-        <v>0.004788696287149275</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P2" t="n">
-        <v>79.53275153179069</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q2" t="n">
-        <v>114.8801504529685</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_8</t>
+          <t>model_10_9_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999784020557234</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9991511396701598</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999874356739371</v>
+        <v>0.9999748392634773</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9998441230392436</v>
+        <v>0.9999698392805606</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999171176267092</v>
+        <v>0.9999724124880138</v>
       </c>
       <c r="G3" t="n">
-        <v>2.016073294198445e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000792373857243703</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I3" t="n">
-        <v>3.979660515624374e-06</v>
+        <v>2.55670867766081e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0001204887238495578</v>
+        <v>3.428362379971795e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>6.22341921825911e-05</v>
+        <v>2.992535528816303e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0002337318635216949</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M3" t="n">
-        <v>0.004490070482963987</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000103670132528</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O3" t="n">
-        <v>0.004681222079151012</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P3" t="n">
-        <v>79.6235475183455</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q3" t="n">
-        <v>114.9709464395233</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_10</t>
+          <t>model_10_9_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999764598188815</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991510997558551</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999885672187879</v>
+        <v>0.9999748392634773</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9998283249475299</v>
+        <v>0.9999698392805606</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999092247585448</v>
+        <v>0.9999724124880138</v>
       </c>
       <c r="G4" t="n">
-        <v>2.197372577962947e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0007924111154951061</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I4" t="n">
-        <v>3.621251768363423e-06</v>
+        <v>2.55670867766081e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0001327002264385508</v>
+        <v>3.428362379971795e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>6.816073910345709e-05</v>
+        <v>2.992535528816303e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.000234502965658754</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M4" t="n">
-        <v>0.004687614081772247</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000112992869369</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O4" t="n">
-        <v>0.004887175517932164</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P4" t="n">
-        <v>79.45132620214805</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q4" t="n">
-        <v>114.7987251233259</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_7</t>
+          <t>model_10_9_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999794900722684</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991510845968347</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999867395782813</v>
+        <v>0.9999748392634773</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9998530766328738</v>
+        <v>0.9999698392805606</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999215793660374</v>
+        <v>0.9999724124880138</v>
       </c>
       <c r="G5" t="n">
-        <v>1.914511725571601e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0007924252657752877</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I5" t="n">
-        <v>4.200143841380674e-06</v>
+        <v>2.55670867766081e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0001135678353158967</v>
+        <v>3.428362379971795e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>5.88839895786387e-05</v>
+        <v>2.992535528816303e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002331994785769974</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M5" t="n">
-        <v>0.004375513370533338</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000098447653112</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O5" t="n">
-        <v>0.004561788033278276</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P5" t="n">
-        <v>79.72692569688152</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q5" t="n">
-        <v>115.0743246180593</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_11</t>
+          <t>model_10_9_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999755897057897</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991510247190097</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999890369757415</v>
+        <v>0.9999748392634773</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9998213178870325</v>
+        <v>0.9999698392805606</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999057171923084</v>
+        <v>0.9999724124880138</v>
       </c>
       <c r="G6" t="n">
-        <v>2.278593815720491e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0007924811590965171</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I6" t="n">
-        <v>3.472459609444902e-06</v>
+        <v>2.55670867766081e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0001381164968942436</v>
+        <v>3.428362379971795e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>7.079447825184426e-05</v>
+        <v>2.992535528816303e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0002347949552160607</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M6" t="n">
-        <v>0.004773461862967474</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N6" t="n">
-        <v>1.00011716941221</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O6" t="n">
-        <v>0.004976678016902276</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P6" t="n">
-        <v>79.37873391952373</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q6" t="n">
-        <v>114.7261328407015</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_6</t>
+          <t>model_10_9_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999806432939204</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991509338902576</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999859338276962</v>
+        <v>0.9999748392634773</v>
       </c>
       <c r="E7" t="n">
-        <v>0.999862672841062</v>
+        <v>0.9999698392805606</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999263487413074</v>
+        <v>0.9999724124880138</v>
       </c>
       <c r="G7" t="n">
-        <v>1.806863546407942e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0007925659437498134</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I7" t="n">
-        <v>4.455359582610741e-06</v>
+        <v>2.55670867766081e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0001061502229068276</v>
+        <v>3.428362379971795e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>5.530279124471918e-05</v>
+        <v>2.992535528816303e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0002325842199308958</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M7" t="n">
-        <v>0.004250721758017034</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000092912189182</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O7" t="n">
-        <v>0.004431683783462903</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P7" t="n">
-        <v>79.84266594019496</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q7" t="n">
-        <v>115.1900648613728</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_12</t>
+          <t>model_10_9_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999747885482191</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9991509225376912</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999894453901413</v>
+        <v>0.9999748392634773</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9998149032750236</v>
+        <v>0.9999698392805606</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999025016306021</v>
+        <v>0.9999724124880138</v>
       </c>
       <c r="G8" t="n">
-        <v>2.353378358261385e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0007925765408721507</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I8" t="n">
-        <v>3.343097266188806e-06</v>
+        <v>2.55670867766081e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0001430748205053441</v>
+        <v>3.428362379971795e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>7.320895888576645e-05</v>
+        <v>2.992535528816303e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002350383707284096</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M8" t="n">
-        <v>0.004851163116471538</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000121014968548</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O8" t="n">
-        <v>0.005057687173631778</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P8" t="n">
-        <v>79.31414713982105</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q8" t="n">
-        <v>114.6615460609989</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_13</t>
+          <t>model_10_9_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999740525155514</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9991508130592784</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999897979234532</v>
+        <v>0.9999748392634773</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9998090406473701</v>
+        <v>0.9999698392805606</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9998995583978041</v>
+        <v>0.9999724124880138</v>
       </c>
       <c r="G9" t="n">
-        <v>2.422083776981153e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0007926787341649344</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I9" t="n">
-        <v>3.231434858297721e-06</v>
+        <v>2.55670867766081e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0001476064749650617</v>
+        <v>3.428362379971795e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>7.541895491167972e-05</v>
+        <v>2.992535528816303e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0002352437085558756</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M9" t="n">
-        <v>0.004921467034311165</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000124547925353</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O9" t="n">
-        <v>0.00513098407480301</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P9" t="n">
-        <v>79.25659446087414</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q9" t="n">
-        <v>114.603993382052</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_14</t>
+          <t>model_10_9_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999733791769875</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9991506963959681</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999901143086083</v>
+        <v>0.9999748392634773</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9998036966277107</v>
+        <v>0.9999698392805606</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9998968744765648</v>
+        <v>0.9999724124880138</v>
       </c>
       <c r="G10" t="n">
-        <v>2.484936976316248e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0007927876342441776</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I10" t="n">
-        <v>3.131222120786917e-06</v>
+        <v>2.55670867766081e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0001517372593084149</v>
+        <v>3.428362379971795e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>7.743424071460091e-05</v>
+        <v>2.992535528816303e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0002354135283891539</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004984914218235102</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N10" t="n">
-        <v>1.00012777995046</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O10" t="n">
-        <v>0.005197132336700366</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P10" t="n">
-        <v>79.20535633477321</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q10" t="n">
-        <v>114.552755255951</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_5</t>
+          <t>model_10_9_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999818729409652</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9991506768303886</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D11" t="n">
-        <v>0.999985001445126</v>
+        <v>0.9999748392634773</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9998730236816208</v>
+        <v>0.9999698392805606</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999314798291343</v>
+        <v>0.9999724124880138</v>
       </c>
       <c r="G11" t="n">
-        <v>1.692081392304483e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0007928058978538294</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I11" t="n">
-        <v>4.75068510036164e-06</v>
+        <v>2.55670867766081e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>9.814929984769633e-05</v>
+        <v>3.428362379971795e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>5.144999247402898e-05</v>
+        <v>2.992535528816303e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0002317940947727543</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M11" t="n">
-        <v>0.004113491694782528</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000087009883367</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O11" t="n">
-        <v>0.004288611552331112</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P11" t="n">
-        <v>79.97393220148859</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q11" t="n">
-        <v>115.3213311226664</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_15</t>
+          <t>model_10_9_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999727544113444</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9991505738054951</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999903949501698</v>
+        <v>0.9999748392634773</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9997987588272357</v>
+        <v>0.9999698392805606</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9998943921039036</v>
+        <v>0.9999724124880138</v>
       </c>
       <c r="G12" t="n">
-        <v>2.543256106688948e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0007929020670696737</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I12" t="n">
-        <v>3.042330911203338e-06</v>
+        <v>2.55670867766081e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0001555540470811983</v>
+        <v>3.428362379971795e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>7.929818899620081e-05</v>
+        <v>2.992535528816303e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0002355721404043636</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M12" t="n">
-        <v>0.005043070599038792</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000130778825547</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O12" t="n">
-        <v>0.005257764555035173</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P12" t="n">
-        <v>79.15896054629093</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q12" t="n">
-        <v>114.5063594674687</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_16</t>
+          <t>model_10_9_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999721880094142</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9991504493730514</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999906373752109</v>
+        <v>0.9999748392634773</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9997942968581591</v>
+        <v>0.9999698392805606</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9998921465887549</v>
+        <v>0.9999724124880138</v>
       </c>
       <c r="G13" t="n">
-        <v>2.596127240654183e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0007930182192938931</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I13" t="n">
-        <v>2.965544511450225e-06</v>
+        <v>2.55670867766081e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0001590030299024813</v>
+        <v>3.428362379971795e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>8.098428720696574e-05</v>
+        <v>2.992535528816303e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0002356970377164248</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M13" t="n">
-        <v>0.00509522054542704</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000133497554812</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O13" t="n">
-        <v>0.005312134632606441</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P13" t="n">
-        <v>79.1178093064201</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q13" t="n">
-        <v>114.4652082275979</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_17</t>
+          <t>model_10_9_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.999971673173853</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9991503314698817</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999908553272912</v>
+        <v>0.9999748392634773</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9997902513574725</v>
+        <v>0.9999698392805606</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9998901102747727</v>
+        <v>0.9999724124880138</v>
       </c>
       <c r="G14" t="n">
-        <v>2.644184880417358e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0007931282767273829</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I14" t="n">
-        <v>2.896509747151023e-06</v>
+        <v>2.55670867766081e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0001621300937912148</v>
+        <v>3.428362379971795e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>8.251330176918291e-05</v>
+        <v>2.992535528816303e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0002358067349278465</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M14" t="n">
-        <v>0.005142163825100634</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000135968765505</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O14" t="n">
-        <v>0.005361076384881725</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P14" t="n">
-        <v>79.08112524182101</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q14" t="n">
-        <v>114.4285241629988</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_4</t>
+          <t>model_10_9_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999831466040801</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C15" t="n">
-        <v>0.999150274337076</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999839382193401</v>
+        <v>0.9999748392634773</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9998839156603336</v>
+        <v>0.9999698392805606</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999368618524292</v>
+        <v>0.9999724124880138</v>
       </c>
       <c r="G15" t="n">
-        <v>1.573190531269663e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0007931816076937041</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I15" t="n">
-        <v>5.087454271956488e-06</v>
+        <v>2.55670867766081e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>8.973009146093233e-05</v>
+        <v>3.428362379971795e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>4.74087728664444e-05</v>
+        <v>2.992535528816303e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0002308944505638813</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M15" t="n">
-        <v>0.003966346595129658</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000080896300416</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O15" t="n">
-        <v>0.004135202181153671</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P15" t="n">
-        <v>80.11963944436739</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q15" t="n">
-        <v>115.4670383655452</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_18</t>
+          <t>model_10_9_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999712043064795</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9991502130075024</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999910486800121</v>
+        <v>0.9999748392634773</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9997865755952441</v>
+        <v>0.9999698392805606</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9998882590826577</v>
+        <v>0.9999724124880138</v>
       </c>
       <c r="G16" t="n">
-        <v>2.68795159165581e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0007932388561586764</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I16" t="n">
-        <v>2.835266654175142e-06</v>
+        <v>2.55670867766081e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0001649713597354041</v>
+        <v>3.428362379971795e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>8.390331319478959e-05</v>
+        <v>2.992535528816303e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0002358858217949666</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M16" t="n">
-        <v>0.005184545873705633</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000138219328899</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O16" t="n">
-        <v>0.005405262725038774</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P16" t="n">
-        <v>79.04829210305621</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q16" t="n">
-        <v>114.395691024234</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_19</t>
+          <t>model_10_9_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999707822150441</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9991501031995028</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999912124998809</v>
+        <v>0.9999748392634773</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9997832762812764</v>
+        <v>0.9999698392805606</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9998865954254984</v>
+        <v>0.9999724124880138</v>
       </c>
       <c r="G17" t="n">
-        <v>2.727351974382214e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0007933413571062467</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I17" t="n">
-        <v>2.783377881146899e-06</v>
+        <v>2.55670867766081e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0001675216412369879</v>
+        <v>3.428362379971795e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>8.51525095590674e-05</v>
+        <v>2.992535528816303e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0002359632034932406</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M17" t="n">
-        <v>0.005222405551450609</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000140245367788</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O17" t="n">
-        <v>0.00544473416764569</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P17" t="n">
-        <v>79.01918859851024</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q17" t="n">
-        <v>114.3665875196881</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_20</t>
+          <t>model_10_9_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999703950578344</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9991499985391267</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999913634558508</v>
+        <v>0.9999748392634773</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9997802544726072</v>
+        <v>0.9999698392805606</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9998850718915294</v>
+        <v>0.9999724124880138</v>
       </c>
       <c r="G18" t="n">
-        <v>2.763491400489626e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0007934390529733447</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I18" t="n">
-        <v>2.735563656157643e-06</v>
+        <v>2.55670867766081e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.00016985741856097</v>
+        <v>3.428362379971795e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>8.629649110856385e-05</v>
+        <v>2.992535528816303e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0002360339923537005</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M18" t="n">
-        <v>0.005256892048054274</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000142103722395</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O18" t="n">
-        <v>0.005480688825806664</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P18" t="n">
-        <v>78.99286116900474</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q18" t="n">
-        <v>114.3402600901826</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_21</t>
+          <t>model_10_9_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999700466682229</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9991499027044352</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999914964111108</v>
+        <v>0.9999748392634773</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9997775397450838</v>
+        <v>0.9999698392805606</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9998837026204734</v>
+        <v>0.9999724124880138</v>
       </c>
       <c r="G19" t="n">
-        <v>2.796012041466583e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0007935285104511286</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I19" t="n">
-        <v>2.69345102743324e-06</v>
+        <v>2.55670867766081e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>0.000171955830368007</v>
+        <v>3.428362379971795e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>8.73246406977201e-05</v>
+        <v>2.992535528816303e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0002360851955514784</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M19" t="n">
-        <v>0.005287733012801028</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N19" t="n">
-        <v>1.00014377599253</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O19" t="n">
-        <v>0.005512842754272285</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P19" t="n">
-        <v>78.96946266786352</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q19" t="n">
-        <v>114.3168615890413</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_22</t>
+          <t>model_10_9_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999697288537432</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9991498103984914</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999916138976573</v>
+        <v>0.9999748392634773</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9997750679510058</v>
+        <v>0.9999698392805606</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9998824551285269</v>
+        <v>0.9999724124880138</v>
       </c>
       <c r="G20" t="n">
-        <v>2.825678628090825e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0007936146739979057</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I20" t="n">
-        <v>2.656238003225996e-06</v>
+        <v>2.55670867766081e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0001738664611157092</v>
+        <v>3.428362379971795e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>8.826134955946761e-05</v>
+        <v>2.992535528816303e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0002361260037808395</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M20" t="n">
-        <v>0.005315711267639379</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000145301502033</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O20" t="n">
-        <v>0.005542012101342076</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P20" t="n">
-        <v>78.9483538137751</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q20" t="n">
-        <v>114.2957527349529</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_23</t>
+          <t>model_10_9_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999694432831163</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C21" t="n">
-        <v>0.99914972592378</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999917204266999</v>
+        <v>0.9999748392634773</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9997728489330038</v>
+        <v>0.9999698392805606</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9998813354333358</v>
+        <v>0.9999724124880138</v>
       </c>
       <c r="G21" t="n">
-        <v>2.852335392610692e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0007936935274329269</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I21" t="n">
-        <v>2.622495690074346e-06</v>
+        <v>2.55670867766081e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0001755817027137671</v>
+        <v>3.428362379971795e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>8.91020992019207e-05</v>
+        <v>2.992535528816303e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0002361714498624533</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M21" t="n">
-        <v>0.00534072597369561</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000146672241042</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0055680917352227</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P21" t="n">
-        <v>78.9295747404806</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q21" t="n">
-        <v>114.2769736616584</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="22">
@@ -1622,272 +1622,272 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.999984462244098</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9991496710287567</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999827238563457</v>
+        <v>0.9999748392634773</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9998953766177264</v>
+        <v>0.9999698392805606</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999425048608221</v>
+        <v>0.9999724124880138</v>
       </c>
       <c r="G22" t="n">
-        <v>1.450381310592149e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0007937447695276237</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I22" t="n">
-        <v>5.472095074490163e-06</v>
+        <v>2.55670867766081e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>8.087107776419269e-05</v>
+        <v>3.428362379971795e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>4.317158641934143e-05</v>
+        <v>2.992535528816303e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0002297995674804488</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M22" t="n">
-        <v>0.003808387205356289</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N22" t="n">
-        <v>1.00007458122833</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O22" t="n">
-        <v>0.003970518133136636</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P22" t="n">
-        <v>80.28219794057372</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q22" t="n">
-        <v>115.6295968617515</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_24</t>
+          <t>model_10_9_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999691843243882</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9991496466999077</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999918150623054</v>
+        <v>0.9999748392634773</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9997708392369987</v>
+        <v>0.9999698392805606</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9998803209709903</v>
+        <v>0.9999724124880138</v>
       </c>
       <c r="G23" t="n">
-        <v>2.876508053181608e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0007937674794402457</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I23" t="n">
-        <v>2.592520538149684e-06</v>
+        <v>2.55670867766081e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0001771351440036174</v>
+        <v>3.428362379971795e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>8.986383227088351e-05</v>
+        <v>2.992535528816303e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0002361977501609921</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0053633087298622</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000147915242937</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O23" t="n">
-        <v>0.005591635886072053</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P23" t="n">
-        <v>78.91269677601395</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q23" t="n">
-        <v>114.2600956971918</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_2</t>
+          <t>model_10_9_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999858008263404</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9991488288948641</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999813031958668</v>
+        <v>0.9999748392634773</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999073227650435</v>
+        <v>0.9999698392805606</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999483540927102</v>
+        <v>0.9999724124880138</v>
       </c>
       <c r="G24" t="n">
-        <v>1.32543053395368e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0007945308645509136</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I24" t="n">
-        <v>5.922079131416871e-06</v>
+        <v>2.55670867766081e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>7.163702522576568e-05</v>
+        <v>3.428362379971795e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>3.877955217859127e-05</v>
+        <v>2.992535528816303e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.000228517335567885</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M24" t="n">
-        <v>0.003640646280475048</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000068156033566</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O24" t="n">
-        <v>0.003795636129811617</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P24" t="n">
-        <v>80.46237625404997</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q24" t="n">
-        <v>115.8097751752278</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_1</t>
+          <t>model_10_9_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999871399775476</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9991476877497977</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999796653112241</v>
+        <v>0.9999748392634773</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999196438758019</v>
+        <v>0.9999698392805606</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999543505081543</v>
+        <v>0.9999724124880138</v>
       </c>
       <c r="G25" t="n">
-        <v>1.200426646951324e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0007955960733799696</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I25" t="n">
-        <v>6.440867390257752e-06</v>
+        <v>2.55670867766081e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>6.211313597048718e-05</v>
+        <v>3.428362379971795e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>3.427700168037247e-05</v>
+        <v>2.992535528816303e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.000226978093695356</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M25" t="n">
-        <v>0.003464717372241673</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000061728107771</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O25" t="n">
-        <v>0.003612217563731701</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P25" t="n">
-        <v>80.66049686447846</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q25" t="n">
-        <v>116.0078957856563</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_0</t>
+          <t>model_10_9_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999884489754717</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9991461325637528</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999777636513605</v>
+        <v>0.9999748392634773</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999321816877283</v>
+        <v>0.9999698392805606</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999604028286703</v>
+        <v>0.9999724124880138</v>
       </c>
       <c r="G26" t="n">
-        <v>1.078237436581574e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0007970477712881023</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I26" t="n">
-        <v>7.043204565772401e-06</v>
+        <v>2.55670867766081e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>5.242174250510661e-05</v>
+        <v>3.428362379971795e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>2.973247353543951e-05</v>
+        <v>2.992535528816303e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0002251003712674606</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M26" t="n">
-        <v>0.003283652595177471</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000055444917736</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O26" t="n">
-        <v>0.003423444484252117</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P26" t="n">
-        <v>80.87519552033433</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q26" t="n">
-        <v>116.2225944415121</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
   </sheetData>
